--- a/TrainList/files/Train_925.xlsx
+++ b/TrainList/files/Train_925.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>НАТУРНЫЙ ЛИСТ ПОЕЗДА</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Состав №:</t>
   </si>
   <si>
-    <t>2168</t>
-  </si>
-  <si>
     <t>Дата:</t>
   </si>
   <si>
@@ -62,70 +59,28 @@
     <t>Последняя операция</t>
   </si>
   <si>
-    <t>63517130</t>
+    <t>ЭЛ635323</t>
+  </si>
+  <si>
+    <t>УКМТ-Т</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРИБЫТИЕ ВАГОНА В СОСТАВЕ  ПОЕЗДА НА СТАНЦИЮ</t>
   </si>
   <si>
     <t>ЭЛ635131</t>
   </si>
   <si>
-    <t>УКМТ-Т</t>
-  </si>
-  <si>
-    <t>74700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРИБЫТИЕ ВАГОНА В СОСТАВЕ  ПОЕЗДА НА СТАНЦИЮ</t>
-  </si>
-  <si>
-    <t>63713465</t>
-  </si>
-  <si>
     <t>ЭЛ635046</t>
   </si>
   <si>
-    <t>63650832</t>
-  </si>
-  <si>
-    <t>ЭЛ635323</t>
-  </si>
-  <si>
-    <t>63417638</t>
-  </si>
-  <si>
-    <t>63648877</t>
-  </si>
-  <si>
-    <t>63453567</t>
-  </si>
-  <si>
-    <t>63246946</t>
-  </si>
-  <si>
     <t>ЭЛ634749</t>
   </si>
   <si>
-    <t>63247183</t>
-  </si>
-  <si>
-    <t>63670277</t>
-  </si>
-  <si>
-    <t>63572184</t>
-  </si>
-  <si>
-    <t>63667372</t>
-  </si>
-  <si>
     <t>ЭЛ635847</t>
   </si>
   <si>
-    <t>63420624</t>
-  </si>
-  <si>
     <t>ЭЛ635635</t>
-  </si>
-  <si>
-    <t>63510077</t>
   </si>
   <si>
     <t>ЭЛ635391</t>
@@ -277,336 +232,336 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="0">
+        <v>2168</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
+      <c r="B7" s="9">
+        <v>63650832</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F7" s="9">
+        <v>74700</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>21</v>
+      <c r="B8" s="9">
+        <v>63517130</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F8" s="9">
+        <v>74700</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>23</v>
+      <c r="B9" s="9">
+        <v>63713465</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F9" s="9">
+        <v>74700</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>25</v>
+      <c r="B10" s="9">
+        <v>63417638</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F10" s="9">
+        <v>74700</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>26</v>
+      <c r="B11" s="9">
+        <v>63648877</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F11" s="9">
+        <v>74700</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>27</v>
+      <c r="B12" s="9">
+        <v>63453567</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F12" s="9">
+        <v>74700</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9">
         <v>7</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>28</v>
+      <c r="B13" s="9">
+        <v>63246946</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F13" s="9">
+        <v>74700</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9">
         <v>8</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>30</v>
+      <c r="B14" s="9">
+        <v>63247183</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F14" s="9">
+        <v>74700</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9">
         <v>9</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>31</v>
+      <c r="B15" s="9">
+        <v>63670277</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F15" s="9">
+        <v>74700</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9">
         <v>10</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>32</v>
+      <c r="B16" s="9">
+        <v>63572184</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F16" s="9">
+        <v>74700</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9">
         <v>11</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>33</v>
+      <c r="B17" s="9">
+        <v>63667372</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F17" s="9">
+        <v>74700</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9">
         <v>12</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>35</v>
+      <c r="B18" s="9">
+        <v>63420624</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F18" s="9">
+        <v>74700</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9">
         <v>13</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>37</v>
+      <c r="B19" s="9">
+        <v>63510077</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F19" s="9">
+        <v>74700</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -617,7 +572,7 @@
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" s="11">
         <v>971100</v>
@@ -626,7 +581,7 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
